--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20F1128-B13D-4973-8362-C4E297C40852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E30F80-AD8B-497A-AFFE-31B74EC6A430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2756,7 +2756,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E30F80-AD8B-497A-AFFE-31B74EC6A430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE11A1-1076-4167-AD93-6EB9B4462F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2767,7 +2767,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
@@ -2778,7 +2778,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
@@ -2789,7 +2789,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE11A1-1076-4167-AD93-6EB9B4462F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42582A14-FAF0-4FF0-A1D4-DE51BAED0121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2800,7 +2800,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
@@ -2811,7 +2811,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
@@ -2822,14 +2822,14 @@
         <v>89</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
       <c r="A92" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -2844,7 +2844,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
@@ -2855,7 +2855,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
@@ -2866,7 +2866,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
@@ -2877,7 +2877,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
@@ -2888,7 +2888,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
@@ -2899,7 +2899,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42582A14-FAF0-4FF0-A1D4-DE51BAED0121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C250E-2D2F-4C5C-8268-8D0A4E07A2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2915,7 +2915,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C250E-2D2F-4C5C-8268-8D0A4E07A2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35654710-A3D9-4A6E-B097-3AAD74E9C889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2926,7 +2926,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2937,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2948,7 +2948,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35654710-A3D9-4A6E-B097-3AAD74E9C889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1C113-6A8C-4479-B03A-5909105D3EAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2959,14 +2959,14 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C106" s="4" t="s">
@@ -2981,7 +2981,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2992,7 +2992,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1C113-6A8C-4479-B03A-5909105D3EAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAE885-C180-40B7-B8ED-A5E460393A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3003,7 +3003,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -3014,7 +3014,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
@@ -3025,7 +3025,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAE885-C180-40B7-B8ED-A5E460393A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE97C08D-58A1-4970-BD25-94536A7928F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3036,7 +3036,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3047,7 +3047,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
@@ -3058,7 +3058,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3069,7 +3069,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3080,7 +3080,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3091,7 +3091,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE97C08D-58A1-4970-BD25-94536A7928F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33124CB3-31B1-4A20-90F9-919C143ED4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3102,7 +3102,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33124CB3-31B1-4A20-90F9-919C143ED4F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9175F554-23B7-4467-8CAD-97966EB2B704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3113,14 +3113,14 @@
         <v>116</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C120" s="4" t="s">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9175F554-23B7-4467-8CAD-97966EB2B704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9884B1B-2B7E-4FEA-8448-B62583F423C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3135,7 +3135,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
@@ -3146,7 +3146,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
@@ -3157,7 +3157,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9884B1B-2B7E-4FEA-8448-B62583F423C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81B317-6050-4245-A754-BB4497FF8D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3168,7 +3168,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81B317-6050-4245-A754-BB4497FF8D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE877C-3A33-4B57-95C4-D004AE389FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3179,7 +3179,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE877C-3A33-4B57-95C4-D004AE389FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6B696-3D09-45EC-868E-C4DB07E2287C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,7 +1872,7 @@
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3190,7 +3190,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
@@ -3201,7 +3201,7 @@
         <v>124</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="21">

--- a/FINAL450 Sheet.xlsx
+++ b/FINAL450 Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final450 Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC6B696-3D09-45EC-868E-C4DB07E2287C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27543742-0D26-4A8D-96C0-E3609ADE20C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>Theory Only</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3212,7 +3215,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="21">
@@ -3223,7 +3226,7 @@
         <v>126</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="21">
@@ -3234,7 +3237,7 @@
         <v>127</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
@@ -3245,7 +3248,7 @@
         <v>128</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="21">
@@ -3256,7 +3259,7 @@
         <v>129</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="21">
@@ -3267,7 +3270,7 @@
         <v>130</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="21">
@@ -3278,7 +3281,7 @@
         <v>131</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="21">
@@ -3296,7 +3299,7 @@
       <c r="A136" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C136" s="4" t="s">
